--- a/back-end/Web Dinamico 2/MRVMinem/obj/Release/Package/PackageTmp/bin/Documentos/1.3 Plantilla_Eficiencia_energetica_comercial.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/obj/Release/Package/PackageTmp/bin/Documentos/1.3 Plantilla_Eficiencia_energetica_comercial.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Versiòn plantillas\Versión borrado de meses y fechas SOLO SE DEJO AÑOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BE73CF-D963-47BD-9ED0-DC4B7CDF4872}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6E2D2A-BF4A-4C2F-9FF6-CC0DFE931CD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{71D78059-0FA9-459A-8548-6759DAA3D3F6}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>Año</t>
   </si>
@@ -112,9 +112,6 @@
     <t>Id</t>
   </si>
   <si>
-    <t>Potencia Iniciativa(W)</t>
-  </si>
-  <si>
     <t>Tipo INI</t>
   </si>
   <si>
@@ -122,9 +119,6 @@
   </si>
   <si>
     <t>Año en que se compró equipo. Seleccione de la lista desplegable.</t>
-  </si>
-  <si>
-    <t>Tipo</t>
   </si>
   <si>
     <t>Número de unidades de este tipo o clase. Inserte su dato.</t>
@@ -136,13 +130,22 @@
     <t>Tipo de lámpara BAU. Seleccione de la lista desplegable.</t>
   </si>
   <si>
-    <t>Potencia de lámpara Iniciativa. Inserte su dato.</t>
+    <t>Registrar sus datos según el ejemplo brindado. Borre estos datos y complete los suyos.</t>
   </si>
   <si>
-    <t>Tipo de lámpara Iniciativa. Seleccione desplegable.</t>
+    <t>Potencia Acción(W)</t>
   </si>
   <si>
-    <t>Registrar sus datos según el ejemplo brindado. Borre estos datos y complete los suyos.</t>
+    <t>Potencia de lámpara acción. Inserte su dato.</t>
+  </si>
+  <si>
+    <t>Tipo de lámpara acción. Seleccione el desplegable.</t>
+  </si>
+  <si>
+    <t>Tipo de Lámpara BAU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo de Lámpara Acción </t>
   </si>
 </sst>
 </file>
@@ -343,9 +346,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -358,6 +358,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -673,21 +676,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D889A0A-A55A-4B94-B1DD-C9998CB27541}">
-  <dimension ref="A1:I313"/>
+  <dimension ref="A1:H313"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
     <col min="3" max="3" width="19" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="26.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" customWidth="1"/>
     <col min="6" max="6" width="21.85546875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" customWidth="1"/>
     <col min="8" max="8" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -702,91 +705,91 @@
         <v>22</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
+      <c r="A2" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="25"/>
+      <c r="F3" s="24"/>
       <c r="G3" s="7" t="s">
         <v>32</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
         <v>2012</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="25">
         <v>36</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="26">
         <f t="shared" ref="C4:C67" si="0">VLOOKUP(D4,Tabla_BAU,2,)</f>
         <v>1</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="25">
         <v>10</v>
       </c>
       <c r="F4" s="23">
         <f t="shared" ref="F4:F67" si="1">VLOOKUP(G4,Tabla_INI,2,)</f>
         <v>1</v>
       </c>
-      <c r="G4" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="26">
+      <c r="G4" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="25">
         <v>100000</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="16"/>
-      <c r="C5" s="28" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D5" s="28"/>
+      <c r="C5" s="27" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D5" s="27"/>
       <c r="E5" s="16"/>
       <c r="F5" s="15" t="e">
         <f t="shared" si="1"/>
@@ -798,7 +801,7 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="28" t="e">
+      <c r="C6" s="27" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
@@ -5715,7 +5718,7 @@
       <c r="G313" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="sbHUxDHh4Do1SYbEEC6RjXXFjoIdHEv9WNMTgGOmMDgAbhL61xvIFNBKxPwvXBxdmO8PfuBz8s9WdV+1hSLM1w==" saltValue="96vGJMpDHxHwwEIMpZT0YA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="b1eR0W70ysBRsybtO/nLB3Wg8zSP6Hx0ZjnLP8L0xcXC6FtscpQOQyo0Ubg92CaU+FCuNdhcS+s4Z2BsdvBbQw==" saltValue="HBxML0tSDgOUrnW8YkMgOQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A2:H2"/>
   </mergeCells>
@@ -5775,7 +5778,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>5</v>
@@ -5798,7 +5801,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J5" s="2">
         <v>1</v>
